--- a/CISSP.xlsx
+++ b/CISSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taia006\Desktop\General\Requests\Project\BC\Cybersecurity\Prepare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3CBD9A-4430-4B0B-AC20-F905D30C75F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E7FEE6-CE80-4E21-8572-4E57990137A8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" xr2:uid="{490CC6AE-1085-4153-B255-6E144A008499}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Security &amp; Compliance &amp; Policies</t>
   </si>
@@ -293,20 +293,443 @@
     <t>involving senior managers and the board for:</t>
   </si>
   <si>
-    <t>the primary strategy: Align and integrate info security with entreprise governace and IT governance framework</t>
-  </si>
-  <si>
-    <t>Goals and strategies: include protection requirements</t>
-  </si>
-  <si>
-    <t>mission: define security requirements, risk management imprevement of infosec program.</t>
-  </si>
-  <si>
-    <t>organizational processes: need to be aligned with Strategy. Includes: 
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the primary strategy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Align and integrate info security with entreprise governace and IT governance framework</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Goals and strategies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: include protection requirements</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mission:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> define security requirements, risk management imprevement of infosec program.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>organizational processes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: need to be aligned with Strategy. Includes: 
 defining roles &amp; responsabilities (ppl with effective implementation and day-to-day mgmt, monitoring, mgmt support to organizational processes</t>
-  </si>
-  <si>
-    <t>Security roles and responsabilities: to be considered for Governance (CISO)…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Security roles and responsabilities</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: to be considered for Governance (CISO)…</t>
+    </r>
+  </si>
+  <si>
+    <t>control frameworks: 3 categories</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mgmt ctrls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: example information security Policies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Admin ctrls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: procedures, Guidelines, standards (to support policies)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>technical ctrls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: example firewalls, intrusion detection systems, antivirus…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Due Diligence &amp; Due Care</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: pertaining to infoSec processes and activities</t>
+    </r>
+  </si>
+  <si>
+    <t>Compliance</t>
+  </si>
+  <si>
+    <t>Due to global nature of the internet, requirements to comply with legal and legislative frameworks have increased</t>
+  </si>
+  <si>
+    <t>following some legal &amp; regulatory frameworks/Terms/Jargons relevant to InfoSec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legislative &amp; regulatory Law: </t>
+  </si>
+  <si>
+    <t>Religious Law</t>
+  </si>
+  <si>
+    <t>Civil law</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Common Law</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: based on the decisions of courts and tribunals
+(used by common law legal systems)UK,USA,CAN, AUS,Safrica,India,Malaysia, Singapore, HK , 3 Categories:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Regulatory law </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(administrative law), Criminal Law, Civil Law</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Statutory Law</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: legislative statute/statute law: by legislature or executive branch of gove (codified law)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Personally Identifiable Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (PII) , </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sensitive Personal Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (SPI) used to identify a person</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Privacy laws: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">protection of privacy : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">intellectual property laws: </t>
+  </si>
+  <si>
+    <t>protection of licensing and intellectual property rights: IPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some terminology: </t>
+  </si>
+  <si>
+    <t>(NIST)PII: info used to trace an individual's identity: name, SSN, date/place of birth, mother's maiden name</t>
+  </si>
+  <si>
+    <t>(NIST)SPI: info liked to an individual: medical, educational, financial and employment infos</t>
+  </si>
+  <si>
+    <t>Trademark</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Copyrights</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: country-specific: grants the creator exclusive rights</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Patent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: public document, specific period of time (innovation)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trade secret</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Legal and regulatory Issues: </t>
   </si>
 </sst>
 </file>
@@ -759,16 +1182,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E31B244-DF8F-49EB-B53A-F4FBB8AAF09A}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="28.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="93.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
@@ -989,6 +1412,141 @@
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B56" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B57" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B60" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B61" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B62" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B67" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B68" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B69" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B70" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B71" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B72" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B73" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B74" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
